--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CodeWars" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,45 +424,112 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Honor</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Total Completed</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Ranking</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>14/07/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6 kyu</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>177</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42</v>
+      </c>
+      <c r="E2" t="n">
+        <v>285853</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>14/07/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6 kyu</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>177</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3" t="n">
+        <v>285853</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14/07/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6 kyu</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>177</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" t="n">
+        <v>285853</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14/07/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6 kyu</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>177</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E5" t="n">
+        <v>285853</v>
       </c>
     </row>
   </sheetData>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">15/07/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/07/2022</t>
   </si>
 </sst>
 </file>
@@ -142,13 +145,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
   </cols>
@@ -191,24 +194,35 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>278800</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>268756</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
@@ -252,8 +266,9 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
     <t xml:space="preserve">Kyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
   </si>
   <si>
     <t xml:space="preserve">Honor</t>
@@ -50,8 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -119,13 +123,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -145,134 +165,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="2" width="13.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="n">
         <v>177</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="E2" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="5" t="n">
         <v>285853</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="n">
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="n">
         <v>181</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="E3" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="F3" s="5" t="n">
         <v>278800</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="n">
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>187</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="5" t="n">
         <v>268756</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
